--- a/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>RYSMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,85 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1146,8 +1199,14 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1193,8 +1252,14 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1379,14 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1432,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1400,8 +1485,14 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1541,8 +1644,14 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1588,8 +1697,14 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1962,14 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1870,8 +2015,14 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1964,60 +2121,72 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2101,8 +2274,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2712,8 +2963,14 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,25 +3009,27 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2797,13 +3058,19 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2844,37 +3111,43 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2891,8 +3164,14 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2927,10 +3206,10 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -2938,8 +3217,14 @@
       <c r="Q60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3002,11 +3293,11 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -3020,11 +3311,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3482,14 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3209,10 +3524,10 @@
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -3220,8 +3535,14 @@
       <c r="Q66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,40 +3768,46 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-28500</v>
+        <v>-27000</v>
       </c>
       <c r="E72" s="3">
-        <v>-28500</v>
+        <v>-27000</v>
       </c>
       <c r="F72" s="3">
-        <v>-28500</v>
+        <v>-21700</v>
       </c>
       <c r="G72" s="3">
-        <v>-28500</v>
+        <v>-21700</v>
       </c>
       <c r="H72" s="3">
-        <v>-28500</v>
+        <v>-21700</v>
       </c>
       <c r="I72" s="3">
-        <v>-28500</v>
+        <v>-27000</v>
       </c>
       <c r="J72" s="3">
-        <v>-28500</v>
+        <v>-21700</v>
       </c>
       <c r="K72" s="3">
         <v>-28500</v>
       </c>
       <c r="L72" s="3">
-        <v>-28400</v>
+        <v>-28500</v>
       </c>
       <c r="M72" s="3">
-        <v>-28400</v>
+        <v>-28500</v>
       </c>
       <c r="N72" s="3">
         <v>-28400</v>
@@ -3474,8 +3821,14 @@
       <c r="Q72" s="3">
         <v>-28400</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-28400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3980,14 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3651,10 +4022,10 @@
         <v>-200</v>
       </c>
       <c r="N76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
@@ -3662,8 +4033,14 @@
       <c r="Q76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3808,8 +4197,14 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>RYSMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1650,8 +1702,11 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3032,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,10 +3207,10 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3138,10 +3275,10 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -3149,8 +3286,8 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3170,16 +3307,19 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -3212,7 +3352,7 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3299,8 +3445,8 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3317,8 +3463,8 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,16 +3643,19 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
@@ -3530,7 +3688,7 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,34 +3945,37 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-27000</v>
+        <v>-27300</v>
       </c>
       <c r="E72" s="3">
-        <v>-27000</v>
+        <v>-27300</v>
       </c>
       <c r="F72" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-21700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-21700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-21700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-27000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-21700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-28500</v>
       </c>
       <c r="L72" s="3">
         <v>-28500</v>
@@ -3810,7 +3984,7 @@
         <v>-28500</v>
       </c>
       <c r="N72" s="3">
-        <v>-28400</v>
+        <v>-28500</v>
       </c>
       <c r="O72" s="3">
         <v>-28400</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-28400</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-28400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4028,7 +4214,7 @@
         <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>RYSMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1205,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1235,8 +1262,11 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1291,8 +1321,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1521,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1537,8 +1580,11 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1698,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1705,8 +1757,11 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1761,8 +1816,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2111,11 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2097,8 +2170,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2229,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2209,69 +2288,75 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3165,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3166,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3213,7 +3347,7 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3278,10 +3415,10 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -3289,8 +3426,8 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3322,10 +3462,10 @@
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -3355,7 +3495,7 @@
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,34 +3565,37 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3466,8 +3612,8 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3801,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3658,10 +3816,10 @@
         <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
@@ -3691,7 +3849,7 @@
         <v>200</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,37 +4119,40 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-27300</v>
       </c>
-      <c r="E72" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21700</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-28500</v>
       </c>
       <c r="M72" s="3">
         <v>-28500</v>
@@ -3987,7 +4161,7 @@
         <v>-28500</v>
       </c>
       <c r="O72" s="3">
-        <v>-28400</v>
+        <v>-28500</v>
       </c>
       <c r="P72" s="3">
         <v>-28400</v>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3">
         <v>-28400</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-28400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,13 +4355,16 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
@@ -4217,7 +4403,7 @@
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4473,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4401,8 +4596,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
@@ -4128,25 +4128,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-28100</v>
+        <v>-29400</v>
       </c>
       <c r="E72" s="3">
-        <v>-28100</v>
+        <v>-29400</v>
       </c>
       <c r="F72" s="3">
-        <v>-28100</v>
+        <v>-29400</v>
       </c>
       <c r="G72" s="3">
-        <v>-28100</v>
+        <v>-29400</v>
       </c>
       <c r="H72" s="3">
-        <v>-22600</v>
+        <v>-23600</v>
       </c>
       <c r="I72" s="3">
-        <v>-22600</v>
+        <v>-23600</v>
       </c>
       <c r="J72" s="3">
-        <v>-22600</v>
+        <v>-23600</v>
       </c>
       <c r="K72" s="3">
         <v>-27300</v>
@@ -4367,7 +4367,7 @@
         <v>-300</v>
       </c>
       <c r="E76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F76" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>RYSMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,100 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +816,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1166,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1257,10 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1265,8 +1318,14 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1324,8 +1383,14 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,8 +1473,14 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,8 +1538,14 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,8 +1603,14 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1583,8 +1668,14 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1798,14 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1760,8 +1863,14 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1819,8 +1928,14 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,8 +2253,14 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2173,8 +2318,14 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2383,14 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2291,72 +2448,84 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2572,10 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2460,8 +2633,14 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2763,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2828,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2893,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2958,14 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +3023,14 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +3088,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3413,14 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3227,8 +3478,14 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3532,10 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3300,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3332,8 +3593,14 @@
       <c r="U57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3350,10 +3617,10 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -3391,8 +3658,14 @@
       <c r="U58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3418,22 +3691,22 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3450,8 +3723,14 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3468,7 +3747,7 @@
         <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -3498,10 +3777,10 @@
         <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
@@ -3509,8 +3788,14 @@
       <c r="U60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3853,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3594,14 +3885,14 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3615,11 +3906,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -3627,8 +3918,14 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +4113,14 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3822,7 +4137,7 @@
         <v>300</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -3852,10 +4167,10 @@
         <v>200</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>100</v>
@@ -3863,8 +4178,14 @@
       <c r="U66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>100</v>
+      </c>
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,52 +4463,58 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-29400</v>
+        <v>-27700</v>
       </c>
       <c r="E72" s="3">
-        <v>-29400</v>
+        <v>-27700</v>
       </c>
       <c r="F72" s="3">
-        <v>-29400</v>
+        <v>-27700</v>
       </c>
       <c r="G72" s="3">
-        <v>-29400</v>
+        <v>-27600</v>
       </c>
       <c r="H72" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-23600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-23600</v>
       </c>
-      <c r="J72" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-27300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-21700</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-28500</v>
       </c>
       <c r="O72" s="3">
         <v>-28500</v>
       </c>
       <c r="P72" s="3">
-        <v>-28400</v>
+        <v>-28500</v>
       </c>
       <c r="Q72" s="3">
-        <v>-28400</v>
+        <v>-28500</v>
       </c>
       <c r="R72" s="3">
         <v>-28400</v>
@@ -4181,8 +4528,14 @@
       <c r="U72" s="3">
         <v>-28400</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="W72" s="3">
+        <v>-28400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4723,14 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4406,10 +4777,10 @@
         <v>-200</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-100</v>
@@ -4417,8 +4788,14 @@
       <c r="U76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4853,84 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4599,8 +4988,14 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5403,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5035,8 +5468,14 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5558,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +6038,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5612,8 +6103,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +6168,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +6231,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>RYSMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1869,8 +1921,11 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3567,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3623,7 +3757,7 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3697,10 +3834,10 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -3708,8 +3845,8 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3750,10 +3890,10 @@
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -3783,7 +3923,7 @@
         <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3891,11 +4037,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3912,8 +4058,8 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4140,10 +4298,10 @@
         <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -4173,7 +4331,7 @@
         <v>200</v>
       </c>
       <c r="T66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>100</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,46 +4640,49 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-27700</v>
+        <v>-27900</v>
       </c>
       <c r="E72" s="3">
-        <v>-27700</v>
+        <v>-27900</v>
       </c>
       <c r="F72" s="3">
-        <v>-27700</v>
+        <v>-27800</v>
       </c>
       <c r="G72" s="3">
-        <v>-27600</v>
+        <v>-27800</v>
       </c>
       <c r="H72" s="3">
-        <v>-27600</v>
+        <v>-27800</v>
       </c>
       <c r="I72" s="3">
-        <v>-27600</v>
+        <v>-27800</v>
       </c>
       <c r="J72" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-22200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-23600</v>
       </c>
       <c r="L72" s="3">
         <v>-23600</v>
       </c>
       <c r="M72" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="N72" s="3">
         <v>-27300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21700</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-28500</v>
       </c>
       <c r="P72" s="3">
         <v>-28500</v>
@@ -4517,7 +4691,7 @@
         <v>-28500</v>
       </c>
       <c r="R72" s="3">
-        <v>-28400</v>
+        <v>-28500</v>
       </c>
       <c r="S72" s="3">
         <v>-28400</v>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3">
         <v>-28400</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-28400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4741,10 +4927,10 @@
         <v>-300</v>
       </c>
       <c r="F76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H76" s="3">
         <v>-200</v>
@@ -4783,7 +4969,7 @@
         <v>-200</v>
       </c>
       <c r="T76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U76" s="3">
         <v>-100</v>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>RYSMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1312,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1354,8 +1381,11 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,8 +1452,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1550,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +1692,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1720,8 +1763,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1905,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1924,8 +1976,11 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1992,8 +2047,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,8 +2402,11 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2400,8 +2473,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2544,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2536,81 +2615,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2747,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2729,8 +2816,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3668,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3701,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3760,7 +3894,7 @@
         <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3837,10 +3974,10 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
@@ -3848,8 +3985,8 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3896,7 +4036,7 @@
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -3926,7 +4066,7 @@
         <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4040,11 +4186,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4061,8 +4207,8 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4432,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4304,7 +4462,7 @@
         <v>300</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -4334,7 +4492,7 @@
         <v>200</v>
       </c>
       <c r="U66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>100</v>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4814,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4670,22 +4844,22 @@
         <v>-27800</v>
       </c>
       <c r="K72" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="L72" s="3">
         <v>-22200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-23600</v>
       </c>
       <c r="M72" s="3">
         <v>-23600</v>
       </c>
       <c r="N72" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="O72" s="3">
         <v>-27300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21700</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-28500</v>
       </c>
       <c r="Q72" s="3">
         <v>-28500</v>
@@ -4694,7 +4868,7 @@
         <v>-28500</v>
       </c>
       <c r="S72" s="3">
-        <v>-28400</v>
+        <v>-28500</v>
       </c>
       <c r="T72" s="3">
         <v>-28400</v>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3">
         <v>-28400</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-28400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5098,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4933,7 +5119,7 @@
         <v>-300</v>
       </c>
       <c r="H76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I76" s="3">
         <v>-200</v>
@@ -4972,7 +5158,7 @@
         <v>-200</v>
       </c>
       <c r="U76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>-100</v>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5240,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5192,8 +5387,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
@@ -4033,7 +4033,7 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -4459,7 +4459,7 @@
         <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -4823,25 +4823,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-27900</v>
+        <v>-27200</v>
       </c>
       <c r="E72" s="3">
-        <v>-27900</v>
+        <v>-27200</v>
       </c>
       <c r="F72" s="3">
-        <v>-27800</v>
+        <v>-27200</v>
       </c>
       <c r="G72" s="3">
-        <v>-27800</v>
+        <v>-27200</v>
       </c>
       <c r="H72" s="3">
-        <v>-27800</v>
+        <v>-27200</v>
       </c>
       <c r="I72" s="3">
-        <v>-27800</v>
+        <v>-27200</v>
       </c>
       <c r="J72" s="3">
-        <v>-27800</v>
+        <v>-27200</v>
       </c>
       <c r="K72" s="3">
         <v>-27800</v>
@@ -5119,7 +5119,7 @@
         <v>-300</v>
       </c>
       <c r="H76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I76" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>RYSMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,91 +682,106 @@
     <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AC7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,8 +851,20 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +934,20 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +1017,20 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1056,12 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1131,20 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1214,20 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1297,20 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1380,20 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1416,12 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1384,8 +1491,20 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1455,8 +1574,20 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1613,12 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1553,8 +1688,20 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,8 +1771,20 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,8 +1854,20 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1766,8 +1937,20 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +2020,20 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,8 +2103,20 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1979,8 +2186,20 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2050,8 +2269,20 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2352,20 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2435,20 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2518,20 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2601,20 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2405,8 +2684,20 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2476,8 +2767,20 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,8 +2850,20 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2618,84 +2933,108 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AC38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +3060,12 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +3091,12 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2819,8 +3166,20 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +3249,20 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3332,20 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3415,20 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3498,20 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3581,20 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3664,20 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3316,8 +3747,20 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3830,20 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3913,20 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3996,20 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +4079,20 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +4162,20 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3742,8 +4245,20 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4284,12 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +4315,12 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3835,16 +4358,16 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3867,8 +4390,20 @@
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3897,16 +4432,16 @@
         <v>200</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -3938,8 +4473,20 @@
       <c r="Y58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3977,28 +4524,28 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4009,8 +4556,20 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4033,22 +4592,22 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
@@ -4069,19 +4628,31 @@
         <v>200</v>
       </c>
       <c r="V60" s="3">
+        <v>200</v>
+      </c>
+      <c r="W60" s="3">
+        <v>200</v>
+      </c>
+      <c r="X60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z60" s="3">
         <v>100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="AA60" s="3">
         <v>100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AB60" s="3">
         <v>100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AC60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4722,20 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4189,8 +4772,8 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4201,8 +4784,8 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4210,20 +4793,32 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4888,20 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4971,20 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,8 +5054,20 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4459,22 +5090,22 @@
         <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
       </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
@@ -4495,19 +5126,31 @@
         <v>200</v>
       </c>
       <c r="V66" s="3">
+        <v>200</v>
+      </c>
+      <c r="W66" s="3">
+        <v>200</v>
+      </c>
+      <c r="X66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z66" s="3">
         <v>100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="AA66" s="3">
         <v>100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AB66" s="3">
         <v>100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AC66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +5176,12 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +5251,20 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5334,20 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5417,20 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,70 +5500,82 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-27200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="L72" s="3">
         <v>-27200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="M72" s="3">
         <v>-27200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="N72" s="3">
         <v>-27200</v>
       </c>
-      <c r="H72" s="3">
-        <v>-27200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-27200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-27200</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-27800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>-22200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>-23600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>-23600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>-27300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>-21700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="U72" s="3">
         <v>-28500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="V72" s="3">
         <v>-28500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="W72" s="3">
         <v>-28500</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-28400</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-28400</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-28400</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-28400</v>
       </c>
       <c r="X72" s="3">
         <v>-28400</v>
@@ -4888,8 +5583,20 @@
       <c r="Y72" s="3">
         <v>-28400</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>-28400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5666,20 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5749,20 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,8 +5832,20 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5119,16 +5862,16 @@
         <v>-300</v>
       </c>
       <c r="H76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
       </c>
       <c r="K76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-200</v>
@@ -5161,19 +5904,31 @@
         <v>-200</v>
       </c>
       <c r="V76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="AA76" s="3">
         <v>-100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AB76" s="3">
         <v>-100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AC76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,84 +5998,108 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AC80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5390,8 +6169,20 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +6208,12 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +6283,20 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +6366,20 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6449,20 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6532,20 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6615,20 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6698,20 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5914,8 +6781,20 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6820,12 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6895,20 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6978,20 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +7061,20 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +7144,20 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +7183,12 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +7258,20 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +7341,20 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +7424,20 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +7507,20 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6607,8 +7590,20 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +7673,20 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6747,6 +7754,18 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>RYSMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -863,8 +867,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,13 +1446,14 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1503,8 +1530,11 @@
       <c r="AC17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1586,8 +1616,11 @@
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1650,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1700,8 +1734,11 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1783,8 +1820,11 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,13 +1906,16 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1949,8 +1992,11 @@
       <c r="AC23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,13 +2164,16 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2198,13 +2250,16 @@
       <c r="AC26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2281,8 +2336,11 @@
       <c r="AC27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2680,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2696,13 +2766,16 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2779,8 +2852,11 @@
       <c r="AC33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,13 +2938,16 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2945,96 +3024,102 @@
       <c r="AC35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,8 +3181,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3178,8 +3265,11 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,8 +3351,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3523,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3609,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3695,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3781,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,13 +4297,16 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>0</v>
+      <c r="D54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -4257,8 +4383,11 @@
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4449,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4370,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -4402,8 +4533,11 @@
       <c r="AC57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4444,7 +4578,7 @@
         <v>200</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -4485,8 +4619,11 @@
       <c r="AC58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4536,10 +4673,10 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
@@ -4547,8 +4684,8 @@
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4568,8 +4705,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4604,13 +4744,13 @@
         <v>300</v>
       </c>
       <c r="N60" s="3">
+        <v>300</v>
+      </c>
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -4640,7 +4780,7 @@
         <v>200</v>
       </c>
       <c r="Z60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA60" s="3">
         <v>100</v>
@@ -4651,8 +4791,11 @@
       <c r="AC60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4784,11 +4930,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4805,8 +4951,8 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
+      <c r="Z62" s="3">
+        <v>0</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>4</v>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,13 +5221,16 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>300</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
@@ -5102,13 +5260,13 @@
         <v>300</v>
       </c>
       <c r="N66" s="3">
+        <v>300</v>
+      </c>
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -5138,7 +5296,7 @@
         <v>200</v>
       </c>
       <c r="Z66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA66" s="3">
         <v>100</v>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,34 +5683,37 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-25700</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-27200</v>
       </c>
       <c r="L72" s="3">
         <v>-27200</v>
@@ -5551,25 +5725,25 @@
         <v>-27200</v>
       </c>
       <c r="O72" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-27800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-23600</v>
       </c>
       <c r="R72" s="3">
         <v>-23600</v>
       </c>
       <c r="S72" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="T72" s="3">
         <v>-27300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21700</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-28500</v>
       </c>
       <c r="V72" s="3">
         <v>-28500</v>
@@ -5578,7 +5752,7 @@
         <v>-28500</v>
       </c>
       <c r="X72" s="3">
-        <v>-28400</v>
+        <v>-28500</v>
       </c>
       <c r="Y72" s="3">
         <v>-28400</v>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3">
         <v>-28400</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>-28400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,8 +6027,11 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5868,13 +6054,13 @@
         <v>-300</v>
       </c>
       <c r="J76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-200</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
@@ -5916,7 +6102,7 @@
         <v>-200</v>
       </c>
       <c r="Z76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA76" s="3">
         <v>-100</v>
@@ -5927,8 +6113,11 @@
       <c r="AC76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,101 +6199,107 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -6181,8 +6376,11 @@
       <c r="AC81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,8 +6924,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6793,8 +7010,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7300,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7156,8 +7386,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7762,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7602,8 +7848,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +7934,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7766,6 +8018,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RYSMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>RYSMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,130 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -870,8 +873,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -956,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1332,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,13 +1472,14 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1533,8 +1559,11 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1619,8 +1648,11 @@
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1737,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1823,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1909,13 +1948,16 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1995,8 +2037,11 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2081,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,13 +2215,16 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2253,13 +2304,16 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2339,8 +2393,11 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2769,13 +2838,16 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2855,8 +2927,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,13 +3016,16 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -3027,99 +3105,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3268,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3440,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3612,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3698,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3870,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3956,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4214,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,13 +4422,16 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -4386,8 +4511,11 @@
       <c r="AD54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4504,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -4536,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4581,7 +4714,7 @@
         <v>200</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -4622,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4676,10 +4812,10 @@
         <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
@@ -4687,8 +4823,8 @@
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4708,13 +4844,16 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
@@ -4747,13 +4886,13 @@
         <v>300</v>
       </c>
       <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
@@ -4783,7 +4922,7 @@
         <v>200</v>
       </c>
       <c r="AA60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB60" s="3">
         <v>100</v>
@@ -4794,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4880,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4933,11 +5078,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4954,8 +5099,8 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>4</v>
+      <c r="AA62" s="3">
+        <v>0</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>4</v>
@@ -4966,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,13 +5378,16 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
@@ -5263,13 +5420,13 @@
         <v>300</v>
       </c>
       <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
@@ -5299,7 +5456,7 @@
         <v>200</v>
       </c>
       <c r="AA66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB66" s="3">
         <v>100</v>
@@ -5310,8 +5467,11 @@
       <c r="AD66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5695,7 +5868,7 @@
         <v>-26400</v>
       </c>
       <c r="E72" s="3">
-        <v>-26300</v>
+        <v>-26400</v>
       </c>
       <c r="F72" s="3">
         <v>-26300</v>
@@ -5713,10 +5886,10 @@
         <v>-26300</v>
       </c>
       <c r="K72" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-25700</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-27200</v>
       </c>
       <c r="M72" s="3">
         <v>-27200</v>
@@ -5728,25 +5901,25 @@
         <v>-27200</v>
       </c>
       <c r="P72" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-22200</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-23600</v>
       </c>
       <c r="S72" s="3">
         <v>-23600</v>
       </c>
       <c r="T72" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="U72" s="3">
         <v>-27300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-21700</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-28500</v>
       </c>
       <c r="W72" s="3">
         <v>-28500</v>
@@ -5755,7 +5928,7 @@
         <v>-28500</v>
       </c>
       <c r="Y72" s="3">
-        <v>-28400</v>
+        <v>-28500</v>
       </c>
       <c r="Z72" s="3">
         <v>-28400</v>
@@ -5772,8 +5945,11 @@
       <c r="AD72" s="3">
         <v>-28400</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-28400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,8 +6212,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6057,13 +6242,13 @@
         <v>-300</v>
       </c>
       <c r="K76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
@@ -6105,7 +6290,7 @@
         <v>-200</v>
       </c>
       <c r="AA76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AB76" s="3">
         <v>-100</v>
@@ -6116,8 +6301,11 @@
       <c r="AD76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,104 +6390,110 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -6379,8 +6573,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6497,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7013,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7131,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7389,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7851,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8021,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
